--- a/data/income_statement/1digit/total/Q_IS_TOTAL.xlsx
+++ b/data/income_statement/1digit/total/Q_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>Q-Human health and social work activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>Q-Human health and social work activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>11864890.07206</v>
+        <v>11864989.52084</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>12832908.27842</v>
+        <v>12833102.13181</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>15739303.82671</v>
+        <v>15742014.33874</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>17998762.67237</v>
+        <v>18044709.62732</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>19923761.22073</v>
+        <v>20462024.03606</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>23102076.34015</v>
+        <v>23314687.61306</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>26037010.09902</v>
+        <v>26775272.69179</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>29703118.69243</v>
+        <v>29785569.40902</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>34044041.36322</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>41409339.63208</v>
+        <v>41548596.51752</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>50514989.99536</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>50971726.99349999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>56324770.828</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>11555277.92281</v>
@@ -995,154 +906,174 @@
         <v>12474774.68024</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>15321975.07265</v>
+        <v>15324621.62551</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>17536583.43209</v>
+        <v>17582383.52223</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>19362654.49627</v>
+        <v>19893598.35171</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>22429445.35528</v>
+        <v>22640225.06777</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>25194298.55484</v>
+        <v>25917647.01074</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>28679976.55536</v>
+        <v>28759308.65623</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>32707649.37631</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>39543081.038</v>
+        <v>39678863.84564</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>47884295.36001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>48317147.95501</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>53343182.196</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>55727.09791999999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>84683.88187000001</v>
+        <v>84683.88186999998</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>71666.23383</v>
+        <v>71666.23382999998</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>102053.72693</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>144309.68968</v>
+        <v>144311.18968</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>192058.13729</v>
+        <v>192100.4452700001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>274635.33742</v>
+        <v>275709.94985</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>192280.4333299999</v>
+        <v>192450.16991</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>353473.99145</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>635286.8828700001</v>
+        <v>635301.1842799999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>979885.51994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>988583.70774</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1332969.982</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>253885.05133</v>
+        <v>253984.50011</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>273449.71631</v>
+        <v>273643.5697</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>345662.52023</v>
+        <v>345726.4793999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>360125.5133499999</v>
+        <v>360272.37816</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>416797.0347799999</v>
+        <v>424114.49467</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>480572.84758</v>
+        <v>482362.10002</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>568076.2067600001</v>
+        <v>581915.7311999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>830861.70374</v>
+        <v>833810.5828799999</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>982917.99546</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1230971.71121</v>
+        <v>1234431.4876</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1650809.11541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1665995.33075</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1648618.65</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>231644.6107899999</v>
+        <v>231644.61079</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>214627.66679</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>239573.70337</v>
+        <v>239580.89071</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>377067.5303400001</v>
+        <v>377250.84828</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>257268.77248</v>
+        <v>275509.67388</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>215626.22706</v>
+        <v>216571.96238</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>292596.04727</v>
+        <v>299759.30235</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>338336.253</v>
+        <v>347493.02573</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>396602.56177</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>504859.25255</v>
+        <v>505342.5739000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>698602.8202099999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>698852.9235699999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>905253.422</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>176703.83072</v>
@@ -1154,37 +1085,42 @@
         <v>200909.52539</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>321497.69271</v>
+        <v>321631.7860600001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>211882.19284</v>
+        <v>230123.09424</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>148945.85322</v>
+        <v>149873.23415</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>188883.39611</v>
+        <v>194433.09964</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>205903.38047</v>
+        <v>215048.95195</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>255747.14871</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>335536.6523899999</v>
+        <v>336003.2539400001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>498261.53665</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>498516.76969</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>678157.86</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>42890.26234</v>
+        <v>42890.26233999999</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>30591.67237</v>
@@ -1193,34 +1129,39 @@
         <v>30378.75746</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>41073.27574</v>
+        <v>41122.50033</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>34060.10128999999</v>
+        <v>34060.10129</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>58979.19663000001</v>
+        <v>58997.55102000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>85788.95691999998</v>
+        <v>86377.22516</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>114250.4933</v>
+        <v>114251.60791</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>123958.37991</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>155176.81669</v>
+        <v>155193.53649</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>185325.24373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>185327.6674</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>205561.019</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>12050.51773</v>
@@ -1229,7 +1170,7 @@
         <v>5784.488139999999</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>8285.42052</v>
+        <v>8292.60786</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>14496.56189</v>
@@ -1238,13 +1179,13 @@
         <v>11326.47835</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>7701.177210000001</v>
+        <v>7701.177209999999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>17923.69424</v>
+        <v>18948.97755</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>18182.37923</v>
+        <v>18192.46587</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>16897.03315</v>
@@ -1253,91 +1194,106 @@
         <v>14145.78347</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>15016.03983</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15008.48648</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>21534.543</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>11633245.46127</v>
+        <v>11633344.91005</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>12618280.61163</v>
+        <v>12618474.46502</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>15499730.12334</v>
+        <v>15502433.44803</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>17621695.14203</v>
+        <v>17667458.77904</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>19666492.44825</v>
+        <v>20186514.36218</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>22886450.11309</v>
+        <v>23098115.65068</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>25744414.05175</v>
+        <v>26475513.38944</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>29364782.43943</v>
+        <v>29438076.38329</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>33647438.80145</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>40904480.37953</v>
+        <v>41043253.94362</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>49816387.17514999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>50272874.06992999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>55419517.406</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>8498606.40966</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>9417420.954619998</v>
+        <v>9417420.954620002</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>11561923.28149</v>
+        <v>11565041.13432</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>13469607.14403</v>
+        <v>13490758.62217</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>15085752.31632</v>
+        <v>15526346.01708</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>17684317.7575</v>
+        <v>17867584.37365</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>20024858.80024</v>
+        <v>20618104.57436</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>23209143.75087</v>
+        <v>23258976.84366</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>26507825.32963</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>31840757.41172</v>
+        <v>31918440.98551</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>38611294.46528</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>38824885.78489999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>41857296.691</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>135794.56534</v>
@@ -1352,31 +1308,36 @@
         <v>108870.58717</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>205469.49314</v>
+        <v>205610.5738</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>179096.04326</v>
+        <v>179233.38814</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>197135.3723</v>
+        <v>198826.4850700001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>176177.20736</v>
+        <v>183070.33596</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>324056.88817</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>482837.00291</v>
+        <v>483401.0860599999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>418154.9021900001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>418795.7454199999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>561846.367</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>391448.88513</v>
@@ -1385,76 +1346,86 @@
         <v>423576.31378</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>481349.7573899999</v>
+        <v>481349.75739</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>481548.8682399999</v>
+        <v>486408.10597</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>513774.7030500001</v>
+        <v>516263.1694</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>499527.0956</v>
+        <v>500914.6170800001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>763243.8808600002</v>
+        <v>771940.7369100001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>703718.2139099999</v>
+        <v>704797.8853099999</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>848957.17741</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>979233.9612</v>
+        <v>985156.19205</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1420195.48901</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1427297.85321</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1642717.601</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>7951493.50032</v>
+        <v>7951493.500320001</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>8861796.945120001</v>
+        <v>8861796.945119999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>10890897.01332</v>
+        <v>10894014.86615</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>12847253.89463</v>
+        <v>12863546.13504</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>14332644.74805</v>
+        <v>14769910.71356</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>16760194.36436</v>
+        <v>16941843.85742</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>19006711.38454</v>
+        <v>19588140.92085</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>22259179.00604</v>
+        <v>22301070.40117</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>25278307.24528</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>30309029.25398</v>
+        <v>30379879.66062999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>36663197.66293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>36866822.84672999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>39546148.151</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>19869.45887</v>
@@ -1469,109 +1440,124 @@
         <v>31933.79399</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>33863.37208</v>
+        <v>34561.56032</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>245500.25428</v>
+        <v>245592.5110100001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>57768.16254</v>
+        <v>59196.43153</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>70069.32356</v>
+        <v>70038.22121999998</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>56504.01877</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>69657.19363000001</v>
+        <v>70004.04677000002</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>109746.41115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>111969.33954</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>106584.572</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>3134639.05161</v>
+        <v>3134738.50039</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>3200859.65701</v>
+        <v>3201053.5104</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>3937806.84185</v>
+        <v>3937392.31371</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>4152087.998000001</v>
+        <v>4176700.15687</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>4580740.13193</v>
+        <v>4660168.345100001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>5202132.35559</v>
+        <v>5230531.27703</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>5719555.25151</v>
+        <v>5857408.815080001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>6155638.68856</v>
+        <v>6179099.53963</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>7139613.47182</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>9063722.967809999</v>
+        <v>9124812.958110001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>11205092.70987</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>11447988.28503</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>13562220.715</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>2061824.97072</v>
+        <v>2061958.13968</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>2287159.70336</v>
+        <v>2287349.30048</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>2661030.85618</v>
+        <v>2661214.23629</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2810935.662169999</v>
+        <v>2830066.55716</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>3079349.60132</v>
+        <v>3119464.86546</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3508807.123769999</v>
+        <v>3525461.81864</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>3810171.56665</v>
+        <v>3899675.68287</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>4239844.778200001</v>
+        <v>4248078.16349</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>4750105.94409</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>5788340.65081</v>
+        <v>5828004.840209999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>7039321.677680001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>7195395.44768</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>7431526.915</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>3054.28121</v>
@@ -1580,10 +1566,10 @@
         <v>3089.78561</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>3550.46077</v>
+        <v>3550.460769999999</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>7070.98627</v>
+        <v>7070.986269999999</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>3986.22063</v>
@@ -1592,25 +1578,30 @@
         <v>6337.63155</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>3660.66265</v>
+        <v>3888.47062</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>7817.362290000001</v>
+        <v>7817.362289999999</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>19962.38903999999</v>
+        <v>19962.38904</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>8940.672379999998</v>
+        <v>9120.672379999998</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>11891.49445</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>12118.61315</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>13651.881</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>174264.39599</v>
@@ -1622,112 +1613,127 @@
         <v>248911.0945</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>285378.39896</v>
+        <v>285378.3989599999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>337839.1520599999</v>
+        <v>349359.2550599999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>380677.4332</v>
+        <v>381367.0507</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>419858.19064</v>
+        <v>429285.36596</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>479111.74736</v>
+        <v>479714.23784</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>560246.9364999998</v>
+        <v>560246.9365</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>737191.573</v>
+        <v>738092.26831</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>933228.8631099999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>937745.2623600001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>970296.802</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1884506.29352</v>
+        <v>1884639.46248</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>2076711.06456</v>
+        <v>2076900.66168</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2408569.300909999</v>
+        <v>2408752.68102</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2518486.276940001</v>
+        <v>2537617.17193</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2737524.22863</v>
+        <v>2766119.38977</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3121792.05902</v>
+        <v>3137757.13639</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>3386652.713359999</v>
+        <v>3466501.84629</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3752915.66855</v>
+        <v>3760546.56336</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>4169896.61855</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>5042208.405429999</v>
+        <v>5080791.89952</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>6094201.32012</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6245531.572170001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>6447578.232</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1072814.08089</v>
+        <v>1072780.36071</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>913699.9536500003</v>
+        <v>913704.2099200001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1276775.98567</v>
+        <v>1276178.07742</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1341152.33583</v>
+        <v>1346633.59971</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1501390.53061</v>
+        <v>1540703.47964</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1693325.23182</v>
+        <v>1705069.45839</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1909383.68486</v>
+        <v>1957733.132209999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1915793.91036</v>
+        <v>1931021.37614</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>2389507.527730001</v>
+        <v>2389507.52773</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3275382.317</v>
+        <v>3296808.1179</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>4165771.03219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4252592.837350001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>6130693.8</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>427361.99001</v>
@@ -1736,37 +1742,42 @@
         <v>452919.25108</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>408951.8557699999</v>
+        <v>408963.4750299999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>582676.6597300001</v>
+        <v>583690.8326099999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>553001.4658199999</v>
+        <v>573988.2963</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>793489.96045</v>
+        <v>801912.0546100001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1185238.47402</v>
+        <v>1240097.15226</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1198161.20424</v>
+        <v>1200758.10096</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1877392.53106</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>4701999.71918</v>
+        <v>4702658.9886</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>3606220.913110001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>3612949.74117</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3704908.778</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>31824.46766</v>
@@ -1778,10 +1789,10 @@
         <v>13173.39735</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>13572.72071</v>
+        <v>13581.92728</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>6660.80971</v>
+        <v>6660.809709999999</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>10922.4421</v>
@@ -1801,14 +1812,19 @@
       <c r="M26" s="48" t="n">
         <v>38579.38982</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>37089.129</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>56356.8129</v>
+        <v>56356.81289999999</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>58114.58611</v>
@@ -1820,7 +1836,7 @@
         <v>34848.48174</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>45473.49751000001</v>
+        <v>45473.49751</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>21991.8109</v>
@@ -1832,58 +1848,68 @@
         <v>51391.52262</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>40873.49416</v>
+        <v>40873.49415999999</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>100363.11076</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>55488.96353000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>55285.09556</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>45094.04</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>62323.56175999999</v>
+        <v>62323.56176</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>80803.06071999999</v>
+        <v>80803.06072000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>105465.98395</v>
+        <v>105471.31689</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>139649.99287</v>
+        <v>140215.27269</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>131125.78713</v>
+        <v>131697.88834</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>208567.97134</v>
+        <v>208928.08446</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>282659.20584</v>
+        <v>285411.06604</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>363557.3077</v>
+        <v>363910.3175400001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>462078.02154</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>795480.0822900002</v>
+        <v>795540.26205</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>995920.91427</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>998340.0685299999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>993900.675</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1387.79003</v>
@@ -1895,34 +1921,39 @@
         <v>1641.24735</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1346.29884</v>
+        <v>1659.69656</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>1184.71316</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>843.8879099999999</v>
+        <v>843.88791</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>953.75414</v>
+        <v>1123.35489</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>1206.98045</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>916.9302899999999</v>
+        <v>916.93029</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>4364.06766</v>
+        <v>4364.07766</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1261.20582</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1430.18074</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1957.939</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>4977.19132</v>
@@ -1931,19 +1962,19 @@
         <v>19448.91671</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>5222.51787</v>
+        <v>5222.517870000001</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>11657.22035</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>5145.18982</v>
+        <v>5288.19472</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>11670.92718</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>41381.68571</v>
+        <v>41484.65839</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>10338.36148</v>
@@ -1952,55 +1983,65 @@
         <v>32497.36758</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>17332.9214</v>
+        <v>17341.1814</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>10844.02415</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>13074.45939</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>22719.667</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>4241.90365</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>4966.61435</v>
+        <v>4966.614349999999</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>4771.486849999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>7449.26532</v>
+        <v>7455.50513</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>6344.090649999998</v>
+        <v>6357.104969999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>5479.74448</v>
+        <v>5484.16305</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>20252.25384</v>
+        <v>20441.75484000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>13702.56482</v>
+        <v>13704.03606</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>27705.45668</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>14576.50797</v>
+        <v>14728.00697</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>39327.8701</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>39337.49878</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>105340.692</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>209526.52949</v>
@@ -2012,34 +2053,39 @@
         <v>165157.14588</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>265484.25278</v>
+        <v>265552.7023</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>221280.03803</v>
+        <v>237464.30923</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>389476.7017699999</v>
+        <v>398095.6658</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>570757.6494599999</v>
+        <v>608767.2491199999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>510805.8717200001</v>
+        <v>512023.76501</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1020277.70115</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3364805.96875</v>
+        <v>3365353.45237</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2089353.78653</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2089043.50543</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2003762.076</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1629.99959</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>12917.545</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>28290.912</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>394.09488</v>
@@ -2087,10 +2138,10 @@
         <v>845.11252</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>23.88796</v>
+        <v>24.57996</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>275.81743</v>
+        <v>275.8174299999999</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>536.9114000000001</v>
@@ -2108,16 +2159,21 @@
         <v>618.05948</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>596.6686300000001</v>
+        <v>596.66863</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>955.98618</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>955.9861800000001</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>1371.112</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>54699.63873000001</v>
@@ -2126,76 +2182,86 @@
         <v>55882.25655999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>73873.98247</v>
+        <v>73879.57679000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>101388.26456</v>
+        <v>101439.864</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>131347.12317</v>
+        <v>135421.56202</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>140931.00659</v>
+        <v>140369.60503</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>185116.70724</v>
+        <v>198751.85119</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>223869.33967</v>
+        <v>224893.86202</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>248277.60515</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>329440.01325</v>
+        <v>329331.85029</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>361571.2277100001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>363986.01174</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>465382.536</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>244375.4201</v>
+        <v>244375.4200999999</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>227221.53854</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>406227.63724</v>
+        <v>406227.6385700001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>255647.32328</v>
+        <v>256591.5242</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>407028.38082</v>
+        <v>475344.62402</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>508315.75873</v>
+        <v>521241.49803</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>834028.5864999999</v>
+        <v>887597.6278400001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1008379.97645</v>
+        <v>1010044.4026</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1538883.51249</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>4002787.85994</v>
+        <v>4003351.14027</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2613487.53479</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2613817.2009</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2737683.424</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>10516.48638</v>
@@ -2207,34 +2273,39 @@
         <v>12276.87706</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>14807.89333</v>
+        <v>14812.60278</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>15374.18246</v>
+        <v>15374.39496</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>17336.44612</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>17676.66792</v>
+        <v>17719.80643</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>23704.8442</v>
+        <v>23706.64456</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>26793.58088</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>35904.38403000001</v>
+        <v>35906.23495999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>51657.84305</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>51630.55033</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>35908.999</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>23881.10697</v>
@@ -2246,34 +2317,39 @@
         <v>25847.52972</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>36353.67623</v>
+        <v>36373.35655</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>23834.07945</v>
+        <v>24381.95902</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>60283.08168</v>
+        <v>60813.81450000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>63050.53231</v>
+        <v>63350.17309</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>108185.17525</v>
+        <v>108197.14925</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>68791.18216</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>59703.93534</v>
+        <v>60008.93581</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>65368.82772</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>65544.60727000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>53072.418</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>403.43539</v>
@@ -2282,7 +2358,7 @@
         <v>407.84342</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>573.8605500000001</v>
+        <v>573.8605499999999</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>4465.54042</v>
@@ -2291,10 +2367,10 @@
         <v>2908.33724</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>9090.626689999997</v>
+        <v>9090.626689999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>2228.72534</v>
+        <v>2410.33126</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>2096.61417</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>15544.47636</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>14535.285</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>180596.21959</v>
@@ -2324,34 +2405,39 @@
         <v>321040.41179</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>142621.34736</v>
+        <v>142842.03427</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>324155.79603</v>
+        <v>384313.36885</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>357554.15377</v>
+        <v>368231.20253</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>677486.85825</v>
+        <v>721132.7599299999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>783364.25985</v>
+        <v>784899.4739099999</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1334561.35434</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>3781165.7584</v>
+        <v>3781310.08604</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2371184.142720001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2370906.952690001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2476109.075</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>2065.01998</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>23148.4578</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>18771.559</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>148.7421</v>
@@ -2408,7 +2499,7 @@
         <v>303.44796</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>88.01361999999999</v>
+        <v>1730.11256</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>37.30793</v>
@@ -2417,7 +2508,7 @@
         <v>125.50979</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>385.82914</v>
+        <v>385.8291400000001</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>2.15891</v>
@@ -2425,134 +2516,154 @@
       <c r="M42" s="48" t="n">
         <v>0.72905</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>26764.40969</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>35877.24861999999</v>
+        <v>35877.24862</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>39637.09488</v>
+        <v>39637.09620999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>53517.86004999999</v>
+        <v>54216.98429000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>37785.44349</v>
+        <v>45396.02179999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>62381.15791</v>
+        <v>62457.01669</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>67243.57119</v>
+        <v>76642.32563999998</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>86427.40457</v>
+        <v>86542.8423</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>72250.64272</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>80081.75612999999</v>
+        <v>80193.85742000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>86583.05809000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>87041.4274</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>139285.333</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>424258.58824</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>438123.1068100001</v>
+        <v>438123.19921</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>661346.25367</v>
+        <v>661346.89368</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>570251.5070800001</v>
+        <v>570252.9537700001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>815016.6839600001</v>
+        <v>835972.19297</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1011327.85714</v>
+        <v>1016497.637</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1387035.72903</v>
+        <v>1457420.33164</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1663234.83329</v>
+        <v>1665191.43742</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1806744.36752</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2990393.02677</v>
+        <v>2990553.33368</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3015961.1178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3022770.24581</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3360707.208</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>351262.66261</v>
+        <v>351262.6626099999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>352787.8075</v>
+        <v>352787.8999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>472052.6718599999</v>
+        <v>472053.3118699999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>496578.6946400001</v>
+        <v>496580.1413299999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>598366.10049</v>
+        <v>619280.51195</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>847152.9957900001</v>
+        <v>851849.25453</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1003768.68529</v>
+        <v>1072710.90429</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1238877.01069</v>
+        <v>1240824.32952</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1424885.48896</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2163343.30608</v>
+        <v>2163503.61299</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2574688.267029999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2580988.80842</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2671370.005</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>72995.92563</v>
+        <v>72995.92563000001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>85335.29931</v>
+        <v>85335.29930999999</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>189293.58181</v>
@@ -2561,109 +2672,124 @@
         <v>73672.81243999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>216650.58347</v>
+        <v>216691.68102</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>164174.86135</v>
+        <v>164648.38247</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>383267.04374</v>
+        <v>384709.42735</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>424357.8226</v>
+        <v>424367.1079000001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>381858.87856</v>
+        <v>381858.8785599999</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>827049.7206899999</v>
+        <v>827049.72069</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>441272.85077</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>441781.4373900001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>689337.203</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>831542.0625600001</v>
+        <v>831508.34238</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>701274.5593799998</v>
+        <v>701278.7232499999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>618153.9505299999</v>
+        <v>617567.0201999999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1097930.1652</v>
+        <v>1103479.95435</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>832346.9316499998</v>
+        <v>803374.9589499999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>967171.5764000001</v>
+        <v>969242.37797</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>873557.8433499999</v>
+        <v>852812.32499</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>442340.30486</v>
+        <v>456543.63708</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>921272.17878</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>984201.1494700001</v>
+        <v>1005562.63255</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2142543.29271</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2228955.131810001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>3737211.946</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>115812.29146</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>163093.61065</v>
+        <v>163099.57756</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>157948.05365</v>
+        <v>157991.51723</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>182574.44108</v>
+        <v>182929.43002</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>263199.64893</v>
+        <v>269787.22477</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>300118.12989</v>
+        <v>300905.63251</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>345468.18037</v>
+        <v>349265.48518</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>590332.70001</v>
+        <v>591788.48555</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>582017.8410300001</v>
+        <v>582017.84103</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>691786.0308400001</v>
+        <v>692394.96824</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>724958.7099299999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>730308.3122899999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>700513.924</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2185.31201</v>
@@ -2675,19 +2801,19 @@
         <v>2807.21813</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>5299.91577</v>
+        <v>5299.915770000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>8160.8601</v>
+        <v>8160.860110000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>10313.33299</v>
+        <v>10400.13227</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>7382.23517</v>
+        <v>7460.007259999998</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>29595.45601</v>
+        <v>29638.28401</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>13570.68724</v>
@@ -2696,52 +2822,62 @@
         <v>11741.65184</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>30066.07023</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>27955.49751</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>19603.274</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>113626.97945</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>159449.88528</v>
+        <v>159455.85219</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>155140.83552</v>
+        <v>155184.2991</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>177274.52531</v>
+        <v>177629.51425</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>255038.78883</v>
+        <v>261626.36466</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>289804.7969</v>
+        <v>290505.50024</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>338085.9451999999</v>
+        <v>341805.47792</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>560737.2439999999</v>
+        <v>562150.2015399999</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>568447.1537900001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>680044.379</v>
+        <v>680653.3164</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>694892.6397000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>702352.8147800001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>680910.65</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>143078.80646</v>
@@ -2750,55 +2886,60 @@
         <v>202823.40397</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1681143.37613</v>
+        <v>1681515.95047</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>376555.05818</v>
+        <v>376764.2813800001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>331837.11017</v>
+        <v>338552.97441</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>918558.4591699999</v>
+        <v>921541.48638</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>348133.29033</v>
+        <v>360776.2041500001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1319809.59636</v>
+        <v>1318980.80899</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>424395.99291</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1282946.01102</v>
+        <v>1285964.95117</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>891792.34989</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>901650.11626</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>921864.542</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>9534.731920000002</v>
+        <v>9534.73192</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>8516.050569999998</v>
+        <v>8516.050569999999</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>28615.78258</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>40530.13202999999</v>
+        <v>40530.13203</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>14111.7875</v>
+        <v>14619.01959</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>28137.11948</v>
+        <v>28395.22481</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>25791.05022</v>
@@ -2810,16 +2951,21 @@
         <v>10870.4733</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>29183.9578</v>
+        <v>29284.70531</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>29020.49348</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>29062.31148</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>24195.545</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>13711.93993</v>
@@ -2831,34 +2977,39 @@
         <v>56687.15669</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>44487.07601999999</v>
+        <v>44492.98596</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>48084.68895999999</v>
+        <v>48410.1756</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>24600.40081</v>
+        <v>24651.26574</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>32404.22403999999</v>
+        <v>32473.82386</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>35558.56579</v>
+        <v>35560.05366</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>46280.30227</v>
+        <v>46280.30226999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>62693.62888000001</v>
+        <v>62819.9766</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>82128.58123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>82254.30877000002</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>81142.2</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>119832.13461</v>
@@ -2867,151 +3018,169 @@
         <v>164133.10213</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1595840.43686</v>
+        <v>1596213.0112</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>291537.85013</v>
+        <v>291741.1633900001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>269640.63371</v>
+        <v>275523.77922</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>865820.9388799999</v>
+        <v>868494.99583</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>289938.0160700001</v>
+        <v>302511.33007</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1257996.47479</v>
+        <v>1257166.19955</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>367245.21734</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1191068.42434</v>
+        <v>1193860.26926</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>780643.2751800001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>790333.49601</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>816526.797</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>804275.5475600001</v>
+        <v>804241.82738</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>661544.7660600001</v>
+        <v>661554.8968400001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-905041.3719500001</v>
+        <v>-905957.41304</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>903949.5481</v>
+        <v>909645.1029900002</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>763709.47041</v>
+        <v>734609.2093099999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>348731.24712</v>
+        <v>348606.5241</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>870892.73339</v>
+        <v>841301.6060199999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-287136.59149</v>
+        <v>-270648.68636</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1078894.0269</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>393041.16929</v>
+        <v>411992.64962</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1975709.65275</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2057613.32784</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>3515861.328</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>200397.93351</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>197089.68051</v>
+        <v>197091.70667</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>217974.80124</v>
+        <v>217976.83225</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>235957.73657</v>
+        <v>237380.31057</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>242050.30692</v>
+        <v>242467.09707</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>266446.82579</v>
+        <v>267188.95984</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>276546.5551699999</v>
+        <v>282400.29825</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>285985.3935599999</v>
+        <v>286699.1672</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>338515.01021</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>490126.02517</v>
+        <v>494197.71958</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>586507.26157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>608674.30698</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>779966.648</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>603877.6140500001</v>
+        <v>603843.8938700001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>464455.08555</v>
+        <v>464463.19017</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-1123016.17319</v>
+        <v>-1123934.24529</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>667991.8115300002</v>
+        <v>672264.79242</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>521659.16349</v>
+        <v>492142.11224</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>82284.42133000001</v>
+        <v>81417.56425999998</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>594346.17822</v>
+        <v>558901.30777</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-573121.9850499999</v>
+        <v>-557347.8535600001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>740379.0166900001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-97084.85588000002</v>
+        <v>-82205.06996000007</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1389202.39118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1448939.02086</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2735894.68</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>11413</v>
+        <v>11414</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>11604</v>
+        <v>11605</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>11805</v>
+        <v>11809</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>11806</v>
+        <v>11820</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>11687</v>
+        <v>11734</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>11445</v>
+        <v>11497</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>11566</v>
+        <v>11675</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>12130</v>
+        <v>12258</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>13504</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>15244</v>
+        <v>16028</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>16598</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>18139</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>